--- a/data/trans_orig/Q02G_FES-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_FES-Estudios-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.824304560757491</v>
+        <v>2.872248409028262</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.490996667802067</v>
+        <v>2.401074440934709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.921677645375517</v>
+        <v>2.913319457190565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.825004365793853</v>
+        <v>2.804653698277112</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.065469788937393</v>
+        <v>3.054009203193738</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.0615202067437</v>
+        <v>3.098989544483999</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.435480898702726</v>
+        <v>6.638263308669716</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.04836567173784</v>
+        <v>10.89322799379726</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.78677970238898</v>
+        <v>4.7214228073766</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.242370002427927</v>
+        <v>4.302611867413007</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.65837275188747</v>
+        <v>4.709170634011113</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.349265526829202</v>
+        <v>5.416952750730107</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.003956956392015</v>
+        <v>1.944588697176849</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.726471601181054</v>
+        <v>2.666435816050242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.199390817813011</v>
+        <v>3.150087177170517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.166735507569009</v>
+        <v>3.073590575404185</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.039233693601578</v>
+        <v>3.058455587819394</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.202868368382137</v>
+        <v>3.156676385575423</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.346333037873816</v>
+        <v>4.474664480613421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.642027047050413</v>
+        <v>5.668048725850078</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.840769334387065</v>
+        <v>5.018890338462129</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.21260417743859</v>
+        <v>5.076130283031522</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.454582866839871</v>
+        <v>4.531732417408532</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>4.855746455071059</v>
+        <v>4.783708876711612</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3954001383329149</v>
+        <v>0.3951026778767233</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.00081314131587</v>
+        <v>0.9963258017313886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5945049776737238</v>
+        <v>0.7011343877784518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.19278323396394</v>
+        <v>3.174643522753955</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7014182813732263</v>
+        <v>0.7056559858429393</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.648544832264234</v>
+        <v>2.750784666744593</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.44646808727281</v>
+        <v>2.458851371825737</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.449966932150591</v>
+        <v>2.469109587634079</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>2.9312605508409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.840801250188639</v>
+        <v>9.866619005310994</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.31939937894408</v>
+        <v>2.298328429568219</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.758995381570869</v>
+        <v>8.118913765446928</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.405346317054975</v>
+        <v>2.412773696564222</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.795268112285422</v>
+        <v>2.752024052531074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.216906898941773</v>
+        <v>3.151655764888295</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.329450737398447</v>
+        <v>3.372295621200943</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.141238230985063</v>
+        <v>3.129933078074449</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.40490337494102</v>
+        <v>3.374510324823439</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.26645007367126</v>
+        <v>4.172734464791337</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.287417829985309</v>
+        <v>5.447516931207236</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.379588560005196</v>
+        <v>4.396543080993222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.061553343970374</v>
+        <v>5.028727432141526</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.201064865147245</v>
+        <v>4.143249202453424</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.774222641468885</v>
+        <v>4.813647752706237</v>
       </c>
     </row>
     <row r="16">
